--- a/data/trans_orig/P37C3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Estudios-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>1532</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4252</v>
+        <v>4204</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001889350811282212</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0005324205483352631</v>
+        <v>0.0005264884363412523</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005245011868844126</v>
+        <v>0.005185420513892753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>1532</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4307</v>
+        <v>4662</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001116741624345362</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0003152438423908106</v>
+        <v>0.0003153799625820561</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003140070955361373</v>
+        <v>0.003399185958295393</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>10449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5904</v>
+        <v>5494</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18977</v>
+        <v>18433</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01862927748823</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01052556525668698</v>
+        <v>0.009794700646026961</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03383333095589976</v>
+        <v>0.03286341326604338</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -825,19 +825,19 @@
         <v>5563</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2342</v>
+        <v>2583</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11460</v>
+        <v>11994</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006861702443182364</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002889063791735712</v>
+        <v>0.003185700079377986</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0141358526559266</v>
+        <v>0.01479413073310077</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -846,19 +846,19 @@
         <v>16012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10072</v>
+        <v>10216</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24625</v>
+        <v>25211</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01167379797011232</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007343175531387068</v>
+        <v>0.007448284267532248</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01795361702067556</v>
+        <v>0.0183804838175549</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>43094</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31735</v>
+        <v>31431</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56648</v>
+        <v>56869</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07683140869370904</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05657893589619587</v>
+        <v>0.05603821543923283</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.100997611585117</v>
+        <v>0.1013909228019253</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>77</v>
@@ -896,19 +896,19 @@
         <v>46007</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36342</v>
+        <v>36066</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57283</v>
+        <v>56526</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05674846340172061</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04482633758780728</v>
+        <v>0.04448642218203631</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07065661842767758</v>
+        <v>0.06972323667694229</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>122</v>
@@ -917,19 +917,19 @@
         <v>89101</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>74922</v>
+        <v>73489</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>108013</v>
+        <v>105600</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06496094990273746</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05462316093619877</v>
+        <v>0.05357871632883997</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07874947307131409</v>
+        <v>0.07698987814410957</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>94945</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76321</v>
+        <v>78212</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>111713</v>
+        <v>111986</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1692751008176907</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1360723737175997</v>
+        <v>0.139442714245726</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.199170534070477</v>
+        <v>0.1996584617834791</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>219</v>
@@ -967,19 +967,19 @@
         <v>133850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118082</v>
+        <v>116869</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151756</v>
+        <v>149883</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1651001138293285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1456515230909123</v>
+        <v>0.1441549909061171</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1871867517489731</v>
+        <v>0.1848766388339556</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>323</v>
@@ -988,19 +988,19 @@
         <v>228794</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>206766</v>
+        <v>202442</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>253321</v>
+        <v>252087</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1668073845401402</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1507468466931911</v>
+        <v>0.1475943451215539</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1846889634776833</v>
+        <v>0.1837893270101339</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>412402</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>392235</v>
+        <v>391133</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>432999</v>
+        <v>432241</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7352642130003704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6993096364387649</v>
+        <v>0.6973455253151581</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7719873499842201</v>
+        <v>0.7706346887143972</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1102</v>
@@ -1038,19 +1038,19 @@
         <v>623767</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>603854</v>
+        <v>605556</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>641289</v>
+        <v>641876</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7694003695144863</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7448382493670478</v>
+        <v>0.746937643508608</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7910135194442373</v>
+        <v>0.7917379497630358</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1618</v>
@@ -1059,19 +1059,19 @@
         <v>1036169</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1005549</v>
+        <v>1006190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1062862</v>
+        <v>1061738</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7554411259626646</v>
+        <v>0.7554411259626647</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.733116954574667</v>
+        <v>0.7335841609059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7749019542933747</v>
+        <v>0.7740829664875477</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>5366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2077</v>
+        <v>1693</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12334</v>
+        <v>12426</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002423582528778871</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0009380315948674226</v>
+        <v>0.000764654548392358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.005570427999207295</v>
+        <v>0.005611783116548419</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1184,19 +1184,19 @@
         <v>7494</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3331</v>
+        <v>3333</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15379</v>
+        <v>16956</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003463658953453956</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001539682430987129</v>
+        <v>0.00154032499130966</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007107823648501777</v>
+        <v>0.007836509586122543</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1205,19 +1205,19 @@
         <v>12861</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6993</v>
+        <v>6256</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23149</v>
+        <v>22500</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002937620774536849</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001597251706505244</v>
+        <v>0.00142890152539495</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005287753836960887</v>
+        <v>0.00513933648978085</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>22333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13595</v>
+        <v>14064</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34211</v>
+        <v>34580</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01008597971507539</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006140006186757773</v>
+        <v>0.006351542271276415</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01545057419570916</v>
+        <v>0.01561741578725033</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -1255,19 +1255,19 @@
         <v>12790</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7485</v>
+        <v>7860</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20025</v>
+        <v>21302</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005911086505051468</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003459328370767861</v>
+        <v>0.00363278800361155</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.009254962817983093</v>
+        <v>0.00984535510508964</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>40</v>
@@ -1276,19 +1276,19 @@
         <v>35122</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24808</v>
+        <v>24801</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48133</v>
+        <v>49222</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.008022617128448159</v>
+        <v>0.008022617128448158</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005666662313342022</v>
+        <v>0.005665100932163208</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01099456689091024</v>
+        <v>0.01124329662521684</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>135795</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>111073</v>
+        <v>108625</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>165199</v>
+        <v>163642</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06132858621681914</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05016349086595884</v>
+        <v>0.04905778127359425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07460838089416932</v>
+        <v>0.07390532827948032</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -1326,19 +1326,19 @@
         <v>80561</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>64210</v>
+        <v>64764</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>99806</v>
+        <v>100837</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03723274894535196</v>
+        <v>0.03723274894535195</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02967594737556364</v>
+        <v>0.02993180366278898</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04612711496462617</v>
+        <v>0.04660391039260578</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>204</v>
@@ -1347,19 +1347,19 @@
         <v>216355</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>183084</v>
+        <v>183288</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>253935</v>
+        <v>245485</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04941967103785614</v>
+        <v>0.04941967103785615</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04181990427618506</v>
+        <v>0.04186639353184583</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05800355484395917</v>
+        <v>0.05607352363392554</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>544799</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>497384</v>
+        <v>498692</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>591641</v>
+        <v>593359</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2460461843128229</v>
+        <v>0.2460461843128228</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.224632103598931</v>
+        <v>0.2252226263077595</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2672010246594238</v>
+        <v>0.2679770007492588</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>728</v>
@@ -1397,19 +1397,19 @@
         <v>495783</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>460915</v>
+        <v>461952</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>533126</v>
+        <v>531976</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2291360445959341</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.213021041067084</v>
+        <v>0.213500433280375</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2463948646268359</v>
+        <v>0.2458635225654532</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1225</v>
@@ -1418,19 +1418,19 @@
         <v>1040582</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>979827</v>
+        <v>985443</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1096463</v>
+        <v>1098526</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2376886652407919</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2238109369405503</v>
+        <v>0.2250938253038475</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2504528776972596</v>
+        <v>0.2509242176863918</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>1505923</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1456027</v>
+        <v>1455365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1559045</v>
+        <v>1556899</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.680115667226504</v>
+        <v>0.6801156672265039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6575814846610927</v>
+        <v>0.6572825095296361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7041070732182533</v>
+        <v>0.703137791746567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2058</v>
@@ -1468,19 +1468,19 @@
         <v>1567078</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1526511</v>
+        <v>1529803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1608462</v>
+        <v>1605242</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7242564610002086</v>
+        <v>0.7242564610002087</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7055076088439317</v>
+        <v>0.7070289649286089</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7433828691095817</v>
+        <v>0.7418947474726278</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3409</v>
@@ -1489,19 +1489,19 @@
         <v>3073000</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3005556</v>
+        <v>3013642</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3134132</v>
+        <v>3135033</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7019314258183671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6865257903105321</v>
+        <v>0.6883729445083229</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7158951519769476</v>
+        <v>0.7161009618182224</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>4414</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1329</v>
+        <v>1421</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11033</v>
+        <v>12214</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.006203634333959052</v>
+        <v>0.006203634333959051</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001868186074888712</v>
+        <v>0.001996890589447072</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01550501705380573</v>
+        <v>0.01716392201194978</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1617,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8043</v>
+        <v>10156</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.003130237656487118</v>
+        <v>0.003130237656487119</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01097250746840469</v>
+        <v>0.01385597770891116</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1635,19 +1635,19 @@
         <v>6709</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2342</v>
+        <v>2538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15973</v>
+        <v>14450</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004644166549976412</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001621090754955963</v>
+        <v>0.001756768264359378</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01105733776276346</v>
+        <v>0.01000283231344449</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>6024</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2244</v>
+        <v>2700</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13528</v>
+        <v>13325</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.008465496721053865</v>
+        <v>0.008465496721053862</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003153433040801005</v>
+        <v>0.003794792492050257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01901129168570117</v>
+        <v>0.01872527926556444</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1685,19 +1685,19 @@
         <v>4424</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1496</v>
+        <v>1329</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9211</v>
+        <v>9400</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.006035071662250798</v>
+        <v>0.006035071662250799</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002040517398533356</v>
+        <v>0.001812934289253349</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01256618685554404</v>
+        <v>0.01282457383872591</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1706,19 +1706,19 @@
         <v>10448</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5412</v>
+        <v>5821</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18266</v>
+        <v>19359</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.007232278240546767</v>
+        <v>0.007232278240546768</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0037465397820485</v>
+        <v>0.0040293798098975</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01264451219784904</v>
+        <v>0.01340119771551297</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>22761</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14748</v>
+        <v>15014</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33907</v>
+        <v>34283</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03198620866795143</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02072524864883368</v>
+        <v>0.02109918176312419</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04764974745740608</v>
+        <v>0.04817782459900413</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -1756,19 +1756,19 @@
         <v>26246</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16660</v>
+        <v>17572</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37850</v>
+        <v>38733</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03580731089793793</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02272933944524115</v>
+        <v>0.02397312704611469</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0516373777069736</v>
+        <v>0.05284259412454137</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>52</v>
@@ -1777,19 +1777,19 @@
         <v>49007</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>36902</v>
+        <v>36866</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>65886</v>
+        <v>66332</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.03392506865001848</v>
+        <v>0.03392506865001849</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02554529697287757</v>
+        <v>0.02552024614055268</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04560945226719231</v>
+        <v>0.04591757106116757</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>171870</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>148898</v>
+        <v>148579</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>197208</v>
+        <v>196777</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2415299008861429</v>
+        <v>0.2415299008861428</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2092480783441825</v>
+        <v>0.2087992265036608</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2771380442494768</v>
+        <v>0.2765326927005562</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>216</v>
@@ -1827,19 +1827,19 @@
         <v>137279</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>120205</v>
+        <v>119703</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>156423</v>
+        <v>156550</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1872852568874863</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1639924879834387</v>
+        <v>0.1633069059497201</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2134029733759469</v>
+        <v>0.2135764768076962</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>382</v>
@@ -1848,19 +1848,19 @@
         <v>309148</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>279269</v>
+        <v>280709</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>338102</v>
+        <v>341436</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2140057041595768</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1933219750910094</v>
+        <v>0.1943187128022233</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2340484945001753</v>
+        <v>0.236356890957584</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>506518</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>480614</v>
+        <v>480669</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>531059</v>
+        <v>532418</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7118147593908929</v>
+        <v>0.7118147593908927</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6754120119581273</v>
+        <v>0.6754889468150095</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7463021159251078</v>
+        <v>0.7482123329507854</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>748</v>
@@ -1898,19 +1898,19 @@
         <v>562749</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>542589</v>
+        <v>541721</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>581603</v>
+        <v>582626</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7677421228958379</v>
+        <v>0.767742122895838</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.740238440485561</v>
+        <v>0.7390543605930558</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7934636764070058</v>
+        <v>0.7948603651173924</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1229</v>
@@ -1919,19 +1919,19 @@
         <v>1069267</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1037381</v>
+        <v>1034031</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1102268</v>
+        <v>1101106</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7401927823998816</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7181197983999614</v>
+        <v>0.7158009994936758</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7630375517016177</v>
+        <v>0.7622328980880815</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>9781</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4507</v>
+        <v>4594</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20714</v>
+        <v>18823</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00280516894568334</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001292754461488639</v>
+        <v>0.001317516209282664</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005940829805525917</v>
+        <v>0.005398474467447857</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2044,19 +2044,19 @@
         <v>11321</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6213</v>
+        <v>5581</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21871</v>
+        <v>20908</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003053476850210164</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001675804771644924</v>
+        <v>0.001505289264583424</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005899278774691513</v>
+        <v>0.005639511991326967</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -2065,19 +2065,19 @@
         <v>21101</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13312</v>
+        <v>12421</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33459</v>
+        <v>32193</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002933132075966979</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00185035809265065</v>
+        <v>0.001726522701283182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004650915550644018</v>
+        <v>0.004474888420301129</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>38805</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>27643</v>
+        <v>26969</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>54012</v>
+        <v>53962</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01112958470089617</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007928013021850021</v>
+        <v>0.007734831290362097</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01549096262305113</v>
+        <v>0.01547663285266321</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -2115,19 +2115,19 @@
         <v>22776</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15607</v>
+        <v>16157</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32047</v>
+        <v>32545</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006143475308624998</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004209598509049277</v>
+        <v>0.004358017608573447</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.008644030644233629</v>
+        <v>0.008778386925584032</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>73</v>
@@ -2136,19 +2136,19 @@
         <v>61582</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>47627</v>
+        <v>47767</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>78509</v>
+        <v>77682</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008560040380559221</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006620344482438541</v>
+        <v>0.006639701487601043</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01091301792453229</v>
+        <v>0.01079804207076105</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>201650</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>170499</v>
+        <v>175419</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>231824</v>
+        <v>238848</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0578340740367153</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0489000647362737</v>
+        <v>0.0503111227771402</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06648836971795365</v>
+        <v>0.06850288444998819</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>203</v>
@@ -2186,19 +2186,19 @@
         <v>152814</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>129477</v>
+        <v>130862</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>176741</v>
+        <v>176342</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04121852113188482</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0349238646435506</v>
+        <v>0.03529745793684209</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04767234961237491</v>
+        <v>0.04756462886528839</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>378</v>
@@ -2207,19 +2207,19 @@
         <v>354464</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>315904</v>
+        <v>318933</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>399727</v>
+        <v>398210</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04927140598493837</v>
+        <v>0.04927140598493838</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04391153532215675</v>
+        <v>0.04433257618843792</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05556309652593269</v>
+        <v>0.05535221924112808</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>811613</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>760300</v>
+        <v>757322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>874181</v>
+        <v>867300</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2327746355615236</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2180576740395322</v>
+        <v>0.2172035134490563</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.250719411237792</v>
+        <v>0.2487459404868868</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1163</v>
@@ -2257,19 +2257,19 @@
         <v>766911</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>723476</v>
+        <v>725331</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>809998</v>
+        <v>812712</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.206858698469251</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1951429205881635</v>
+        <v>0.1956432639258054</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.21848060724085</v>
+        <v>0.2192125396581367</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1930</v>
@@ -2278,19 +2278,19 @@
         <v>1578525</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1511873</v>
+        <v>1516248</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1652900</v>
+        <v>1655401</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2194191024749689</v>
+        <v>0.219419102474969</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2101544023054909</v>
+        <v>0.2107624945371954</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2297574108256322</v>
+        <v>0.2301050636259993</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>2424843</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2358529</v>
+        <v>2362476</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2484115</v>
+        <v>2479134</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6954565367551816</v>
+        <v>0.6954565367551815</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6764375067494826</v>
+        <v>0.6775695860349972</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7124560499266391</v>
+        <v>0.7110274629538903</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3908</v>
@@ -2328,19 +2328,19 @@
         <v>2753593</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2706971</v>
+        <v>2702001</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2798668</v>
+        <v>2798821</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.742725828240029</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7301504024848651</v>
+        <v>0.728809956619091</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7548838466453277</v>
+        <v>0.7549250679106272</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6256</v>
@@ -2349,19 +2349,19 @@
         <v>5178436</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5106584</v>
+        <v>5090365</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5259747</v>
+        <v>5248352</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7198163190835666</v>
+        <v>0.7198163190835665</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7098286368225508</v>
+        <v>0.7075741145415606</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7311187726223034</v>
+        <v>0.7295347588708891</v>
       </c>
     </row>
     <row r="27">
